--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -572,7 +572,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43495</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43724</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>44593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43402</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43479</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43488</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43517</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43545</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43570</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43570</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43586</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43586</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43586</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43606</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43610</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43619</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43703</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43719</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43719</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43724</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43724</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43762</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43773</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43774</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43803</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43839</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43844</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43880</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43893</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43893</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43922</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43944</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43944</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43965</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44022</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44055</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44062</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44085</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44096</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44096</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44152</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44155</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44173</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44215</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44223</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>44224</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44228</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>44252</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44252</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44315</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>44342</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44456</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44456</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44474</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44477</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44487</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44515</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44571</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44608</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>44615</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>44615</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>44615</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44615</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44623</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44659</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44692</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>44714</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44729</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>44745</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44810</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>44846</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>44853</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>44897</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>44914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44922</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44939</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44939</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44951</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44953</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44980</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44981</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45008</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45010</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45034</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45069</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45109</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45146</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -572,7 +572,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43495</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43724</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>44593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43402</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43479</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43488</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43517</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43545</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43570</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43570</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43586</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43586</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43586</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43606</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43610</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43619</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43703</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43719</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43719</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43724</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43724</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43762</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43773</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43774</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43803</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43839</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43844</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43880</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43893</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43893</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43922</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43944</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43944</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43965</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44022</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44055</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44062</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44085</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44096</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44096</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44152</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44155</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44173</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44215</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44223</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>44224</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44228</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>44252</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44252</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44315</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>44342</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44456</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44456</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44474</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44477</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44487</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44515</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44571</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44608</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>44615</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>44615</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>44615</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44615</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44623</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44659</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44692</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>44714</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44729</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>44745</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44810</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>44846</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>44853</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>44897</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>44914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44922</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44939</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44939</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44951</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44953</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44980</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44981</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45008</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45010</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45034</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45069</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45109</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45146</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -572,7 +572,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43495</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43724</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>44593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43402</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43479</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43488</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43517</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43545</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43570</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43570</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43586</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43586</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43586</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43606</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43610</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43619</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43703</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43719</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43719</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43724</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43724</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43762</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43773</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43774</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43803</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43839</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43844</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43880</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43893</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43893</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43922</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43944</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43944</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43965</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44022</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44055</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44062</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44085</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44096</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44096</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44152</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44155</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44173</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44215</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44223</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>44224</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44228</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>44252</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44252</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44315</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>44342</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44456</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44456</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44474</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44477</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44487</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44515</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44571</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44608</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>44615</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>44615</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>44615</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44615</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44623</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44659</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44692</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>44714</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44729</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>44745</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44810</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>44846</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>44853</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>44897</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>44914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44922</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44939</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44939</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44951</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44953</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44980</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44981</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45008</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45010</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45034</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45069</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45109</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45146</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -572,7 +572,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43495</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43724</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>44593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43402</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43479</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43488</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43517</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43545</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43570</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43570</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43586</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43586</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43586</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43606</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43610</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43619</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43703</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43719</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43719</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43724</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43724</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43762</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43773</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43774</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43803</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43839</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43844</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43880</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43893</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43893</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43922</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43944</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43944</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43965</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44022</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44055</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44062</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44085</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44096</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44096</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44152</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44155</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44173</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44215</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44223</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>44224</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44228</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>44252</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44252</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44315</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>44342</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44456</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44456</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44474</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44477</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44487</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44515</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44571</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44608</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>44615</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>44615</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>44615</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44615</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44623</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44659</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44692</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>44714</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44729</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>44745</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44810</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>44846</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>44853</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>44897</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>44914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44922</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44939</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44939</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44951</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44953</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44980</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44981</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45008</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45010</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45034</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45069</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45109</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45146</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -572,7 +572,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43495</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43724</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>44593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43402</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43479</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43488</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43517</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43545</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43570</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43570</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43586</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43586</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43586</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43606</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43610</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43619</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43703</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43719</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43719</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43724</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43724</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43762</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43773</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43774</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43803</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43839</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43844</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43880</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43893</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43893</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43922</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43944</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43944</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43965</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44022</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44055</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44062</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44085</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44096</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44096</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44152</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44155</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44173</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44215</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44223</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>44224</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44228</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>44252</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44252</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44315</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>44342</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44456</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44456</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44474</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44477</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44487</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44515</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44571</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44608</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>44615</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>44615</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>44615</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44615</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44623</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44659</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44692</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>44714</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44729</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>44745</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44810</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>44846</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>44853</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>44897</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>44914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44922</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44939</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44939</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44951</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44953</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44980</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44981</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45008</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45010</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45034</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45069</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45109</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45146</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -572,7 +572,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43495</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43724</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>44593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43402</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43479</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43488</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43517</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43545</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43570</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43570</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43586</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43586</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43586</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43606</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43610</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43619</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43703</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43719</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43719</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43724</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43724</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43762</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43773</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43774</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43803</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43839</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43844</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43880</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43893</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43893</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43922</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43944</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43944</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43965</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44022</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44055</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44062</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44085</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44096</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44096</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44152</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44155</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44173</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44215</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44223</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>44224</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44228</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>44252</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44252</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44315</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>44342</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44456</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44456</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44474</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44477</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44487</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44515</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44571</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44608</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>44615</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>44615</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>44615</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44615</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44623</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44659</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44692</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>44714</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44729</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>44745</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44810</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>44846</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>44853</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>44897</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>44914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44922</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44939</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44939</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44951</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44953</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44980</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44981</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45008</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45010</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45034</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45069</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45109</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45146</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -572,7 +572,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43495</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43724</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>44593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43402</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43479</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43488</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43517</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43545</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43570</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43570</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43586</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43586</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43586</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43606</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43610</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43619</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43703</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43719</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43719</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43724</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43724</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43762</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43773</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43774</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43803</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43839</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43844</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43880</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43893</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43893</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43922</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43944</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43944</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43965</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44022</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44055</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44062</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44085</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44096</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44096</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44152</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44155</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44173</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44215</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44223</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>44224</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44228</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>44252</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44252</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44315</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>44342</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44456</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44456</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44474</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44477</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44487</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44515</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44571</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44608</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>44615</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>44615</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>44615</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44615</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44623</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44659</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44692</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>44714</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44729</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>44745</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44810</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>44846</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>44853</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>44897</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>44914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44922</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44939</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44939</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44951</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44953</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44980</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44981</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45008</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45010</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45034</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45069</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45109</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45146</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -572,7 +572,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43495</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43724</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>44593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43402</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43479</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43488</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43517</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43545</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43570</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43570</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43586</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43586</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43586</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43606</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43610</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43619</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43703</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43719</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43719</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43724</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43724</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43762</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43773</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43774</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43803</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43839</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43844</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43880</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43893</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43893</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43922</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43944</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43944</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43965</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44022</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44055</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44062</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44085</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44096</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44096</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44152</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44155</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44173</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44215</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44223</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>44224</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44228</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>44252</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44252</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44315</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>44342</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44456</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44456</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44474</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44477</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44487</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44515</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44571</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44608</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>44615</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>44615</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>44615</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44615</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44623</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44659</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44692</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>44714</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44729</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>44745</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44810</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>44846</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>44853</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>44897</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>44914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44922</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44939</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44939</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44951</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44953</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44980</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44981</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45008</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45010</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45034</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45069</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45109</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45146</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -572,7 +572,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43495</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43724</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>44593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43402</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43479</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43488</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43517</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43545</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43570</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43570</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43586</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43586</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43586</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43606</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43610</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43619</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43703</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43719</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43719</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43724</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43724</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43762</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43773</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43774</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43803</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43839</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43844</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43880</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43893</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43893</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43922</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43944</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43944</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43965</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44022</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44055</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44062</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44085</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44096</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44096</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44152</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44155</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44173</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44215</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44223</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>44224</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44228</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>44252</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44252</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44315</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>44342</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44456</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44456</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44474</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44477</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44487</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44515</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44571</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44608</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>44615</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>44615</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>44615</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44615</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44623</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44659</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44692</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>44714</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44729</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>44745</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44810</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>44846</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>44853</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>44897</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>44914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44922</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44939</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44939</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44951</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44953</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44980</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44981</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45008</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45010</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45034</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45069</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45109</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45146</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -572,7 +572,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -624,27 +624,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/artfynd/A 13199-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/artfynd/A 13199-2021.xlsx", "A 13199-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/kartor/A 13199-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/kartor/A 13199-2021.png", "A 13199-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomål/A 13199-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomål/A 13199-2021.docx", "A 13199-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomålsmail/A 13199-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomålsmail/A 13199-2021.docx", "A 13199-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsyn/A 13199-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsyn/A 13199-2021.docx", "A 13199-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsynsmail/A 13199-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsynsmail/A 13199-2021.docx", "A 13199-2021")</f>
         <v/>
       </c>
     </row>
@@ -658,7 +658,7 @@
         <v>43495</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,31 +714,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/artfynd/A 7017-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/artfynd/A 7017-2019.xlsx", "A 7017-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/kartor/A 7017-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/kartor/A 7017-2019.png", "A 7017-2019")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/knärot/A 7017-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/knärot/A 7017-2019.png", "A 7017-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomål/A 7017-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomål/A 7017-2019.docx", "A 7017-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomålsmail/A 7017-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomålsmail/A 7017-2019.docx", "A 7017-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsyn/A 7017-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsyn/A 7017-2019.docx", "A 7017-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsynsmail/A 7017-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsynsmail/A 7017-2019.docx", "A 7017-2019")</f>
         <v/>
       </c>
     </row>
@@ -752,7 +752,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -808,27 +808,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/artfynd/A 26314-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/artfynd/A 26314-2019.xlsx", "A 26314-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/kartor/A 26314-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/kartor/A 26314-2019.png", "A 26314-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomål/A 26314-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomål/A 26314-2019.docx", "A 26314-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomålsmail/A 26314-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomålsmail/A 26314-2019.docx", "A 26314-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsyn/A 26314-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsyn/A 26314-2019.docx", "A 26314-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsynsmail/A 26314-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsynsmail/A 26314-2019.docx", "A 26314-2019")</f>
         <v/>
       </c>
     </row>
@@ -842,7 +842,7 @@
         <v>43724</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,27 +893,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/artfynd/A 47520-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/artfynd/A 47520-2019.xlsx", "A 47520-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/kartor/A 47520-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/kartor/A 47520-2019.png", "A 47520-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomål/A 47520-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomål/A 47520-2019.docx", "A 47520-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomålsmail/A 47520-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomålsmail/A 47520-2019.docx", "A 47520-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsyn/A 47520-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsyn/A 47520-2019.docx", "A 47520-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsynsmail/A 47520-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsynsmail/A 47520-2019.docx", "A 47520-2019")</f>
         <v/>
       </c>
     </row>
@@ -927,7 +927,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -978,27 +978,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/artfynd/A 2741-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/artfynd/A 2741-2021.xlsx", "A 2741-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/kartor/A 2741-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/kartor/A 2741-2021.png", "A 2741-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomål/A 2741-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomål/A 2741-2021.docx", "A 2741-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomålsmail/A 2741-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomålsmail/A 2741-2021.docx", "A 2741-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsyn/A 2741-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsyn/A 2741-2021.docx", "A 2741-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsynsmail/A 2741-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsynsmail/A 2741-2021.docx", "A 2741-2021")</f>
         <v/>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
         <v>44593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1063,27 +1063,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/artfynd/A 4966-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/artfynd/A 4966-2022.xlsx", "A 4966-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/kartor/A 4966-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/kartor/A 4966-2022.png", "A 4966-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomål/A 4966-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomål/A 4966-2022.docx", "A 4966-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomålsmail/A 4966-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/klagomålsmail/A 4966-2022.docx", "A 4966-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsyn/A 4966-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsyn/A 4966-2022.docx", "A 4966-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsynsmail/A 4966-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HJO/tillsynsmail/A 4966-2022.docx", "A 4966-2022")</f>
         <v/>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43402</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43479</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43488</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43517</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43545</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43570</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43570</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43586</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43586</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43586</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43606</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43610</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43619</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43703</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43719</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43719</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43724</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43724</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43762</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43773</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43774</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43803</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43839</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43844</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43880</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43893</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43893</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43922</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43944</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43944</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43965</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44022</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44055</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44062</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44085</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44096</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44096</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44152</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44155</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44173</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44215</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44223</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>44224</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44228</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>44252</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44252</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44315</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>44342</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44456</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44456</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44474</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44477</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44487</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44515</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44571</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44608</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>44615</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>44615</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>44615</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44615</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44623</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44659</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44692</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>44714</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44729</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>44745</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44810</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>44846</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>44853</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>44897</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>44914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44922</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44939</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44939</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44951</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44953</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44980</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44981</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45008</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45010</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45034</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45069</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45109</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45146</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -572,7 +572,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43495</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43724</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>44593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43402</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43479</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43488</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43517</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43545</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43570</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43570</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43586</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43586</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43586</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43606</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43610</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43619</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43703</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43719</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43719</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43724</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43724</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43762</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43773</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43774</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43803</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43839</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43844</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43880</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43893</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43893</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43922</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43944</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43944</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43965</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44022</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44055</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44062</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44085</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44096</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44096</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44152</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44155</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44173</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44215</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44223</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>44224</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44228</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>44252</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44252</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44315</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>44342</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44456</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44456</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44474</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44477</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44487</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44515</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44571</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44608</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>44615</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>44615</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>44615</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44615</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44623</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44659</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44692</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>44714</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44729</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>44745</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44810</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>44846</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>44853</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>44897</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>44914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44922</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44939</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44939</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44951</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44953</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44980</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44981</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45008</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45010</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45034</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45069</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45109</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45146</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -572,7 +572,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43495</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43724</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>44593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43402</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43479</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43488</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43517</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43545</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43570</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43570</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43586</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43586</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43586</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43606</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43610</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43619</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43703</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43719</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43719</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43724</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43724</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43762</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43773</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43774</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43803</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43839</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43844</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43880</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43893</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43893</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43922</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43944</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43944</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43965</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44022</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44055</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44062</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44085</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44096</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44096</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44152</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44155</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44173</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44215</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44223</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>44224</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44228</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>44252</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44252</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44315</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>44342</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44456</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44456</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44474</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44477</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44487</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44515</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44571</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44608</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>44615</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>44615</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>44615</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44615</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44623</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44659</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44692</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>44714</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44729</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>44745</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44810</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>44846</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>44853</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>44897</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>44914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44922</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44939</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44939</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44951</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44953</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44980</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44981</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45008</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45010</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45034</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45069</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45109</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45146</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -572,7 +572,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43495</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43724</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>44593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43402</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43479</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43488</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43517</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43545</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43570</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43570</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43586</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43586</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43586</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43606</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43610</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43619</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43703</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43719</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43719</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43724</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43724</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43762</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43773</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43774</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43803</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43839</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43844</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43880</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43893</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43893</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43922</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43944</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43944</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43965</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44022</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44055</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44062</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44085</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44096</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44096</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44152</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44155</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44173</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44215</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44223</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>44224</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44228</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>44252</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44252</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44315</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>44342</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44456</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44456</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44474</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44477</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44487</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44515</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44571</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44608</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>44615</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>44615</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>44615</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44615</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44623</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44659</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44692</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>44714</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44729</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>44745</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44810</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>44846</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>44853</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>44897</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>44914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44922</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44939</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44939</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44951</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44953</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44980</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44981</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45008</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45010</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45034</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45069</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45109</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45146</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -572,7 +572,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43495</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43724</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>44593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43402</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43479</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43488</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43517</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43545</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43570</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43570</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43586</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43586</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43586</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43606</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43610</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43619</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43703</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43719</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43719</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43724</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43724</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43762</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43773</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43774</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43803</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43839</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43844</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43880</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43893</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43893</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43922</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43944</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43944</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43965</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44022</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44055</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44062</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44085</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44096</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44096</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44152</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44155</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44173</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44215</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44223</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>44224</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44228</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>44252</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44252</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44315</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>44342</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44456</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44456</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44474</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44477</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44487</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44515</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44571</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44608</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>44615</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>44615</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>44615</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44615</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44623</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44659</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44692</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>44714</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44729</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>44745</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44810</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>44846</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>44853</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>44897</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>44914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44922</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44939</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44939</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44951</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44953</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44980</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44981</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45008</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45010</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45034</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45069</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45109</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45146</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -572,7 +572,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43495</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43724</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>44593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43402</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43479</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43488</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43517</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43545</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43570</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43570</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43586</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43586</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43586</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43606</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43610</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43619</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43703</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43719</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43719</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43724</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43724</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43762</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43773</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43774</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43803</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43839</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43844</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43880</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43893</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43893</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43922</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43944</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43944</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43965</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44022</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44055</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44062</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44085</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44096</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44096</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44152</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44155</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44173</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44215</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44223</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>44224</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44228</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>44252</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44252</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44315</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>44342</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44456</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44456</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44474</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44477</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44487</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44515</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44571</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44608</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>44615</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>44615</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>44615</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44615</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44623</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44659</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44692</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>44714</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44729</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>44745</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44810</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>44846</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>44853</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>44897</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>44914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44922</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44939</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44939</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44951</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44953</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44980</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44981</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45008</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45010</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45034</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45069</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45109</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45146</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -572,7 +572,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43495</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43724</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>44593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43402</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43479</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43488</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43517</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43545</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43570</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43570</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43586</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43586</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43586</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43606</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43610</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43619</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43703</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43719</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43719</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43724</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43724</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43762</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43773</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43774</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43803</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43839</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43844</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43880</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43893</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43893</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43922</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43944</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43944</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43965</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44022</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44055</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44062</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44085</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44096</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44096</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44152</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44155</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44173</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44215</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44223</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>44224</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44228</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>44252</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44252</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44315</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>44342</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44456</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44456</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44474</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44477</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44487</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44515</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44571</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44608</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>44615</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>44615</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>44615</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44615</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44623</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44659</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44692</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>44714</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44729</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>44745</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44810</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>44846</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>44853</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>44897</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>44914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44922</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44939</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44939</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44951</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44953</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44980</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44981</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45008</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45010</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45034</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45069</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45109</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45146</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -572,7 +572,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43495</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43724</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>44593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43402</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43479</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43488</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43517</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43545</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43570</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43570</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43586</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43586</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43586</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43606</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43610</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43619</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43703</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43719</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43719</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43724</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43724</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43762</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43773</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43774</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43803</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43839</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43844</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43880</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43893</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43893</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43922</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43944</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43944</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43965</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44022</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44055</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44062</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44085</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44096</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44096</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44152</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44155</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44173</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44215</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44223</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>44224</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44228</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>44252</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44252</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44315</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>44342</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44456</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44456</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44474</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44477</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44487</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44515</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44571</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44608</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>44615</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>44615</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>44615</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44615</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44623</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44659</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44692</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>44714</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44729</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>44745</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44810</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>44846</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>44853</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>44897</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>44914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44922</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44939</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44939</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44951</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44953</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44980</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44981</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45008</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45010</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45034</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45069</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45109</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45146</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -572,7 +572,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43495</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43724</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44215</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>44593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43364</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43402</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43452</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43479</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43488</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43517</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43545</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>43545</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43570</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43570</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43586</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43586</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43586</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>43586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>43606</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>43610</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43619</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43683</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43703</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43719</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43719</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43724</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43724</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43762</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43773</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43774</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43803</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43839</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43844</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43857</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43880</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43893</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43893</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43922</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43944</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43944</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43965</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44022</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44055</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44062</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>44085</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44096</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44096</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44152</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44155</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44173</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44215</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44223</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>44224</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44228</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>44252</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44252</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44315</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>44342</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44456</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44456</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44474</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44477</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44487</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44508</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44508</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44515</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44571</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44608</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>44615</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>44615</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>44615</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44615</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44623</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44659</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44692</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>44714</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44729</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>44745</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44810</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>44846</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>44853</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>44897</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>44914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44922</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44939</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44939</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44951</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44953</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44980</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44981</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45008</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45010</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45034</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45069</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45091</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45109</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45146</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
